--- a/pred_ohlcv/54/2019-10-09 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-09 MCO ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="C2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="D2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="E2" t="n">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="F2" t="n">
-        <v>15.1</v>
+        <v>0.3807</v>
       </c>
       <c r="G2" t="n">
-        <v>3721.9</v>
+        <v>3720.983333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>3775</v>
       </c>
       <c r="F3" t="n">
-        <v>125.4541</v>
+        <v>15.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3722.816666666667</v>
+        <v>3721.9</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C4" t="n">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="D4" t="n">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="E4" t="n">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F4" t="n">
-        <v>80.1079</v>
+        <v>125.4541</v>
       </c>
       <c r="G4" t="n">
-        <v>3723.933333333333</v>
+        <v>3722.816666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="C5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="D5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="E5" t="n">
-        <v>3732</v>
+        <v>3776</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2297</v>
+        <v>80.1079</v>
       </c>
       <c r="G5" t="n">
-        <v>3724.3</v>
+        <v>3723.933333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="C6" t="n">
-        <v>3701</v>
+        <v>3732</v>
       </c>
       <c r="D6" t="n">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="E6" t="n">
-        <v>3701</v>
+        <v>3732</v>
       </c>
       <c r="F6" t="n">
-        <v>1059.7987</v>
+        <v>2.2297</v>
       </c>
       <c r="G6" t="n">
-        <v>3724.15</v>
+        <v>3724.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3771</v>
+        <v>3747</v>
       </c>
       <c r="C7" t="n">
-        <v>3767</v>
+        <v>3701</v>
       </c>
       <c r="D7" t="n">
-        <v>3771</v>
+        <v>3747</v>
       </c>
       <c r="E7" t="n">
-        <v>3767</v>
+        <v>3701</v>
       </c>
       <c r="F7" t="n">
-        <v>99.0085</v>
+        <v>1059.7987</v>
       </c>
       <c r="G7" t="n">
-        <v>3725.1</v>
+        <v>3724.15</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="C8" t="n">
-        <v>3776</v>
+        <v>3767</v>
       </c>
       <c r="D8" t="n">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="E8" t="n">
-        <v>3776</v>
+        <v>3767</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>99.0085</v>
       </c>
       <c r="G8" t="n">
-        <v>3726.2</v>
+        <v>3725.1</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -593,21 +619,24 @@
         <v>3776</v>
       </c>
       <c r="C9" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="D9" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="E9" t="n">
         <v>3776</v>
       </c>
       <c r="F9" t="n">
-        <v>45.5799</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>3727.316666666667</v>
+        <v>3726.2</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C10" t="n">
         <v>3777</v>
@@ -625,15 +654,18 @@
         <v>3777</v>
       </c>
       <c r="E10" t="n">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="F10" t="n">
-        <v>68.48</v>
+        <v>45.5799</v>
       </c>
       <c r="G10" t="n">
-        <v>3728.433333333333</v>
+        <v>3727.316666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>3777</v>
       </c>
       <c r="F11" t="n">
-        <v>15.1</v>
+        <v>68.48</v>
       </c>
       <c r="G11" t="n">
-        <v>3730.1</v>
+        <v>3728.433333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>3777</v>
       </c>
       <c r="C12" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="D12" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="E12" t="n">
         <v>3777</v>
       </c>
       <c r="F12" t="n">
-        <v>296.6735</v>
+        <v>15.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3731.416666666667</v>
+        <v>3730.1</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>3777</v>
+      </c>
+      <c r="C13" t="n">
         <v>3778</v>
       </c>
-      <c r="C13" t="n">
-        <v>3779</v>
-      </c>
       <c r="D13" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="E13" t="n">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="F13" t="n">
-        <v>72.8899</v>
+        <v>296.6735</v>
       </c>
       <c r="G13" t="n">
-        <v>3732.75</v>
+        <v>3731.416666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C14" t="n">
         <v>3779</v>
@@ -729,15 +770,18 @@
         <v>3779</v>
       </c>
       <c r="E14" t="n">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="F14" t="n">
-        <v>9.5999</v>
+        <v>72.8899</v>
       </c>
       <c r="G14" t="n">
-        <v>3734.083333333333</v>
+        <v>3732.75</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>3779</v>
       </c>
       <c r="F15" t="n">
-        <v>15.1</v>
+        <v>9.5999</v>
       </c>
       <c r="G15" t="n">
-        <v>3735.416666666667</v>
+        <v>3734.083333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>3779</v>
       </c>
       <c r="F16" t="n">
-        <v>56.3299</v>
+        <v>15.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3736.9</v>
+        <v>3735.416666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>3779</v>
       </c>
       <c r="C17" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="D17" t="n">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="E17" t="n">
         <v>3779</v>
       </c>
       <c r="F17" t="n">
-        <v>99.4546</v>
+        <v>56.3299</v>
       </c>
       <c r="G17" t="n">
-        <v>3738.4</v>
+        <v>3736.9</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3789</v>
+        <v>3779</v>
       </c>
       <c r="C18" t="n">
-        <v>3789</v>
+        <v>3780</v>
       </c>
       <c r="D18" t="n">
-        <v>3789</v>
+        <v>3780</v>
       </c>
       <c r="E18" t="n">
-        <v>3789</v>
+        <v>3779</v>
       </c>
       <c r="F18" t="n">
-        <v>11.7316</v>
+        <v>99.4546</v>
       </c>
       <c r="G18" t="n">
-        <v>3740.05</v>
+        <v>3738.4</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="C19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="D19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="E19" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="F19" t="n">
-        <v>5.2153</v>
+        <v>11.7316</v>
       </c>
       <c r="G19" t="n">
-        <v>3741.15</v>
+        <v>3740.05</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="C20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="D20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="E20" t="n">
-        <v>3794</v>
+        <v>3766</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>5.2153</v>
       </c>
       <c r="G20" t="n">
-        <v>3742.716666666667</v>
+        <v>3741.15</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>3794</v>
       </c>
       <c r="C21" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="D21" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="E21" t="n">
         <v>3794</v>
       </c>
       <c r="F21" t="n">
-        <v>22.9</v>
+        <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3744.333333333333</v>
+        <v>3742.716666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="C22" t="n">
         <v>3797</v>
@@ -937,15 +1002,18 @@
         <v>3797</v>
       </c>
       <c r="E22" t="n">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="F22" t="n">
-        <v>59.08</v>
+        <v>22.9</v>
       </c>
       <c r="G22" t="n">
-        <v>3745.866666666667</v>
+        <v>3744.333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>3797</v>
       </c>
       <c r="C23" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="D23" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="E23" t="n">
         <v>3797</v>
       </c>
       <c r="F23" t="n">
-        <v>348.0656</v>
+        <v>59.08</v>
       </c>
       <c r="G23" t="n">
-        <v>3747.6</v>
+        <v>3745.866666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>3797</v>
+      </c>
+      <c r="C24" t="n">
         <v>3809</v>
       </c>
-      <c r="C24" t="n">
-        <v>3815</v>
-      </c>
       <c r="D24" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="E24" t="n">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="F24" t="n">
-        <v>12.6813</v>
+        <v>348.0656</v>
       </c>
       <c r="G24" t="n">
-        <v>3749.433333333333</v>
+        <v>3747.6</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="C25" t="n">
         <v>3815</v>
@@ -1015,15 +1089,18 @@
         <v>3815</v>
       </c>
       <c r="E25" t="n">
-        <v>3815</v>
+        <v>3809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>12.6813</v>
       </c>
       <c r="G25" t="n">
-        <v>3751.266666666667</v>
+        <v>3749.433333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>3815</v>
       </c>
       <c r="C26" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="D26" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="E26" t="n">
         <v>3815</v>
       </c>
       <c r="F26" t="n">
-        <v>41.3006</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>3753.25</v>
+        <v>3751.266666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1138,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="C27" t="n">
         <v>3839</v>
@@ -1067,15 +1147,18 @@
         <v>3839</v>
       </c>
       <c r="E27" t="n">
-        <v>3839</v>
+        <v>3815</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>41.3006</v>
       </c>
       <c r="G27" t="n">
-        <v>3755.1</v>
+        <v>3753.25</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3801</v>
+        <v>3839</v>
       </c>
       <c r="C28" t="n">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="D28" t="n">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="E28" t="n">
-        <v>3801</v>
+        <v>3839</v>
       </c>
       <c r="F28" t="n">
-        <v>5.9018</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3756.916666666667</v>
+        <v>3755.1</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3840</v>
+        <v>3801</v>
       </c>
       <c r="C29" t="n">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="D29" t="n">
-        <v>3840</v>
+        <v>3836</v>
       </c>
       <c r="E29" t="n">
-        <v>3840</v>
+        <v>3801</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>5.9018</v>
       </c>
       <c r="G29" t="n">
-        <v>3758.816666666667</v>
+        <v>3756.916666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>3840</v>
       </c>
       <c r="C30" t="n">
-        <v>3800</v>
+        <v>3840</v>
       </c>
       <c r="D30" t="n">
-        <v>3870</v>
+        <v>3840</v>
       </c>
       <c r="E30" t="n">
-        <v>3768</v>
+        <v>3840</v>
       </c>
       <c r="F30" t="n">
-        <v>1304.595</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3760.05</v>
+        <v>3758.816666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3870</v>
+        <v>3840</v>
       </c>
       <c r="C31" t="n">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="D31" t="n">
         <v>3870</v>
       </c>
       <c r="E31" t="n">
-        <v>3796</v>
+        <v>3768</v>
       </c>
       <c r="F31" t="n">
-        <v>871.2791999999999</v>
+        <v>1304.595</v>
       </c>
       <c r="G31" t="n">
-        <v>3761.2</v>
+        <v>3760.05</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3804</v>
+        <v>3870</v>
       </c>
       <c r="C32" t="n">
-        <v>3804</v>
+        <v>3796</v>
       </c>
       <c r="D32" t="n">
-        <v>3804</v>
+        <v>3870</v>
       </c>
       <c r="E32" t="n">
-        <v>3804</v>
+        <v>3796</v>
       </c>
       <c r="F32" t="n">
-        <v>7.54</v>
+        <v>871.2791999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3762.483333333333</v>
+        <v>3761.2</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="C33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="D33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="E33" t="n">
-        <v>3870</v>
+        <v>3804</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>7.54</v>
       </c>
       <c r="G33" t="n">
-        <v>3764.866666666667</v>
+        <v>3762.483333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="C34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="D34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="E34" t="n">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="F34" t="n">
-        <v>28.4276</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3767.516666666667</v>
+        <v>3764.866666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="C35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="D35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="E35" t="n">
-        <v>3862</v>
+        <v>3867</v>
       </c>
       <c r="F35" t="n">
-        <v>30.8</v>
+        <v>28.4276</v>
       </c>
       <c r="G35" t="n">
-        <v>3769.783333333333</v>
+        <v>3767.516666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>3862</v>
       </c>
       <c r="C36" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="D36" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="E36" t="n">
         <v>3862</v>
       </c>
       <c r="F36" t="n">
-        <v>11.3</v>
+        <v>30.8</v>
       </c>
       <c r="G36" t="n">
-        <v>3772.183333333333</v>
+        <v>3769.783333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>3862</v>
+      </c>
+      <c r="C37" t="n">
         <v>3870</v>
       </c>
-      <c r="C37" t="n">
-        <v>3873</v>
-      </c>
       <c r="D37" t="n">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="E37" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="F37" t="n">
-        <v>349.5172</v>
+        <v>11.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3774.616666666667</v>
+        <v>3772.183333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3870</v>
+      </c>
+      <c r="C38" t="n">
         <v>3873</v>
       </c>
-      <c r="C38" t="n">
-        <v>3875</v>
-      </c>
       <c r="D38" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="E38" t="n">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="F38" t="n">
-        <v>43.8191</v>
+        <v>349.5172</v>
       </c>
       <c r="G38" t="n">
-        <v>3777.083333333333</v>
+        <v>3774.616666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="C39" t="n">
         <v>3875</v>
@@ -1379,15 +1495,18 @@
         <v>3875</v>
       </c>
       <c r="E39" t="n">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1</v>
+        <v>43.8191</v>
       </c>
       <c r="G39" t="n">
-        <v>3779.55</v>
+        <v>3777.083333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>3875</v>
       </c>
       <c r="C40" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="D40" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="E40" t="n">
         <v>3875</v>
       </c>
       <c r="F40" t="n">
-        <v>12.1963</v>
+        <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>3782.666666666667</v>
+        <v>3779.55</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="C41" t="n">
         <v>3914</v>
@@ -1431,15 +1553,18 @@
         <v>3914</v>
       </c>
       <c r="E41" t="n">
-        <v>3914</v>
+        <v>3875</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1</v>
+        <v>12.1963</v>
       </c>
       <c r="G41" t="n">
-        <v>3785.766666666667</v>
+        <v>3782.666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3861</v>
+        <v>3914</v>
       </c>
       <c r="C42" t="n">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="D42" t="n">
-        <v>3911</v>
+        <v>3914</v>
       </c>
       <c r="E42" t="n">
-        <v>3861</v>
+        <v>3914</v>
       </c>
       <c r="F42" t="n">
-        <v>211.1705</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3788.816666666667</v>
+        <v>3785.766666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="C43" t="n">
-        <v>3863</v>
+        <v>3911</v>
       </c>
       <c r="D43" t="n">
-        <v>3863</v>
+        <v>3911</v>
       </c>
       <c r="E43" t="n">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2895</v>
+        <v>211.1705</v>
       </c>
       <c r="G43" t="n">
-        <v>3791.066666666667</v>
+        <v>3788.816666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="C44" t="n">
-        <v>3855</v>
+        <v>3863</v>
       </c>
       <c r="D44" t="n">
-        <v>3856</v>
+        <v>3863</v>
       </c>
       <c r="E44" t="n">
-        <v>3855</v>
+        <v>3863</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>0.2895</v>
       </c>
       <c r="G44" t="n">
-        <v>3793.166666666667</v>
+        <v>3791.066666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="C45" t="n">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="D45" t="n">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="E45" t="n">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="F45" t="n">
-        <v>12.3136</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
-        <v>3795.316666666667</v>
+        <v>3793.166666666667</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1561,15 +1698,18 @@
         <v>3858</v>
       </c>
       <c r="E46" t="n">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="F46" t="n">
-        <v>17.0029</v>
+        <v>12.3136</v>
       </c>
       <c r="G46" t="n">
-        <v>3797.466666666667</v>
+        <v>3795.316666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="C47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="D47" t="n">
-        <v>3878</v>
+        <v>3858</v>
       </c>
       <c r="E47" t="n">
-        <v>3878</v>
+        <v>3857</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>17.0029</v>
       </c>
       <c r="G47" t="n">
-        <v>3799.95</v>
+        <v>3797.466666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="C48" t="n">
-        <v>3864</v>
+        <v>3878</v>
       </c>
       <c r="D48" t="n">
-        <v>3864</v>
+        <v>3878</v>
       </c>
       <c r="E48" t="n">
-        <v>3863</v>
+        <v>3878</v>
       </c>
       <c r="F48" t="n">
-        <v>39.487</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>3802.183333333333</v>
+        <v>3799.95</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3830</v>
+        <v>3863</v>
       </c>
       <c r="C49" t="n">
-        <v>3879</v>
+        <v>3864</v>
       </c>
       <c r="D49" t="n">
-        <v>3879</v>
+        <v>3864</v>
       </c>
       <c r="E49" t="n">
-        <v>3827</v>
+        <v>3863</v>
       </c>
       <c r="F49" t="n">
-        <v>590.2285000000001</v>
+        <v>39.487</v>
       </c>
       <c r="G49" t="n">
-        <v>3804.666666666667</v>
+        <v>3802.183333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3875</v>
+        <v>3830</v>
       </c>
       <c r="C50" t="n">
-        <v>3875</v>
+        <v>3879</v>
       </c>
       <c r="D50" t="n">
-        <v>3875</v>
+        <v>3879</v>
       </c>
       <c r="E50" t="n">
-        <v>3875</v>
+        <v>3827</v>
       </c>
       <c r="F50" t="n">
-        <v>77.56999999999999</v>
+        <v>590.2285000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>3807.083333333333</v>
+        <v>3804.666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3844</v>
+        <v>3875</v>
       </c>
       <c r="C51" t="n">
         <v>3875</v>
@@ -1691,15 +1843,18 @@
         <v>3875</v>
       </c>
       <c r="E51" t="n">
-        <v>3844</v>
+        <v>3875</v>
       </c>
       <c r="F51" t="n">
-        <v>168.8159</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>3809.516666666667</v>
+        <v>3807.083333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3871</v>
+        <v>3844</v>
       </c>
       <c r="C52" t="n">
-        <v>3871</v>
+        <v>3875</v>
       </c>
       <c r="D52" t="n">
-        <v>3871</v>
+        <v>3875</v>
       </c>
       <c r="E52" t="n">
-        <v>3871</v>
+        <v>3844</v>
       </c>
       <c r="F52" t="n">
-        <v>10.92</v>
+        <v>168.8159</v>
       </c>
       <c r="G52" t="n">
-        <v>3811.866666666667</v>
+        <v>3809.516666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="C53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="D53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="E53" t="n">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="F53" t="n">
-        <v>77.92</v>
+        <v>10.92</v>
       </c>
       <c r="G53" t="n">
-        <v>3814.183333333333</v>
+        <v>3811.866666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="C54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="D54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="E54" t="n">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="F54" t="n">
-        <v>8.1906</v>
+        <v>77.92</v>
       </c>
       <c r="G54" t="n">
-        <v>3816.466666666667</v>
+        <v>3814.183333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="C55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="D55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="E55" t="n">
-        <v>3880</v>
+        <v>3872</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>8.1906</v>
       </c>
       <c r="G55" t="n">
-        <v>3818.883333333333</v>
+        <v>3816.466666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3906</v>
+        <v>3880</v>
       </c>
       <c r="C56" t="n">
-        <v>3905</v>
+        <v>3880</v>
       </c>
       <c r="D56" t="n">
-        <v>3906</v>
+        <v>3880</v>
       </c>
       <c r="E56" t="n">
-        <v>3905</v>
+        <v>3880</v>
       </c>
       <c r="F56" t="n">
-        <v>4.31522432</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>3821.716666666667</v>
+        <v>3818.883333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="C57" t="n">
-        <v>3874</v>
+        <v>3905</v>
       </c>
       <c r="D57" t="n">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="E57" t="n">
-        <v>3874</v>
+        <v>3905</v>
       </c>
       <c r="F57" t="n">
-        <v>58.3106</v>
+        <v>4.31522432</v>
       </c>
       <c r="G57" t="n">
-        <v>3823.466666666667</v>
+        <v>3821.716666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>3909</v>
       </c>
       <c r="C58" t="n">
-        <v>3909</v>
+        <v>3874</v>
       </c>
       <c r="D58" t="n">
         <v>3909</v>
       </c>
       <c r="E58" t="n">
-        <v>3909</v>
+        <v>3874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>58.3106</v>
       </c>
       <c r="G58" t="n">
-        <v>3825.8</v>
+        <v>3823.466666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="C59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="D59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="E59" t="n">
-        <v>3873</v>
+        <v>3909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8094</v>
+        <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>3827.533333333333</v>
+        <v>3825.8</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="C60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="D60" t="n">
-        <v>3853</v>
+        <v>3873</v>
       </c>
       <c r="E60" t="n">
-        <v>3852</v>
+        <v>3873</v>
       </c>
       <c r="F60" t="n">
-        <v>111.6502</v>
+        <v>0.8094</v>
       </c>
       <c r="G60" t="n">
-        <v>3829.35</v>
+        <v>3827.533333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="C61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D61" t="n">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="E61" t="n">
         <v>3852</v>
       </c>
       <c r="F61" t="n">
-        <v>5.37</v>
+        <v>111.6502</v>
       </c>
       <c r="G61" t="n">
-        <v>3830.616666666667</v>
+        <v>3829.35</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="C62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="D62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="E62" t="n">
-        <v>3904</v>
+        <v>3852</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>5.37</v>
       </c>
       <c r="G62" t="n">
-        <v>3832.766666666667</v>
+        <v>3830.616666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="C63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="D63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="E63" t="n">
-        <v>3883</v>
+        <v>3904</v>
       </c>
       <c r="F63" t="n">
-        <v>4.00206026</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
-        <v>3834.566666666667</v>
+        <v>3832.766666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="C64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="D64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="E64" t="n">
-        <v>3897</v>
+        <v>3883</v>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>4.00206026</v>
       </c>
       <c r="G64" t="n">
-        <v>3836.583333333333</v>
+        <v>3834.566666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="C65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="D65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="E65" t="n">
-        <v>3894</v>
+        <v>3897</v>
       </c>
       <c r="F65" t="n">
-        <v>4.00102722</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>3839.283333333333</v>
+        <v>3836.583333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="C66" t="n">
-        <v>3866</v>
+        <v>3894</v>
       </c>
       <c r="D66" t="n">
-        <v>3867</v>
+        <v>3894</v>
       </c>
       <c r="E66" t="n">
-        <v>3866</v>
+        <v>3894</v>
       </c>
       <c r="F66" t="n">
-        <v>87.3219</v>
+        <v>4.00102722</v>
       </c>
       <c r="G66" t="n">
-        <v>3842.033333333333</v>
+        <v>3839.283333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C67" t="n">
         <v>3866</v>
       </c>
       <c r="D67" t="n">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="E67" t="n">
         <v>3866</v>
       </c>
       <c r="F67" t="n">
-        <v>167.2461</v>
+        <v>87.3219</v>
       </c>
       <c r="G67" t="n">
-        <v>3843.683333333333</v>
+        <v>3842.033333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="C68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="D68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="E68" t="n">
-        <v>3864</v>
+        <v>3866</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>167.2461</v>
       </c>
       <c r="G68" t="n">
-        <v>3845.15</v>
+        <v>3843.683333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="C69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="D69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="E69" t="n">
-        <v>3843</v>
+        <v>3864</v>
       </c>
       <c r="F69" t="n">
-        <v>54.7068</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>3846.25</v>
+        <v>3845.15</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>3843</v>
       </c>
       <c r="F70" t="n">
-        <v>39.2052</v>
+        <v>54.7068</v>
       </c>
       <c r="G70" t="n">
-        <v>3847.35</v>
+        <v>3846.25</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="C71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="D71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="E71" t="n">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="F71" t="n">
-        <v>2.5377</v>
+        <v>39.2052</v>
       </c>
       <c r="G71" t="n">
-        <v>3848.483333333333</v>
+        <v>3847.35</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="C72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="D72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="E72" t="n">
-        <v>3865</v>
+        <v>3845</v>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>2.5377</v>
       </c>
       <c r="G72" t="n">
-        <v>3849.933333333333</v>
+        <v>3848.483333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>3865</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>3851.366666666667</v>
+        <v>3849.933333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3846</v>
+        <v>3865</v>
       </c>
       <c r="C74" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="D74" t="n">
-        <v>3846</v>
+        <v>3865</v>
       </c>
       <c r="E74" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="F74" t="n">
-        <v>22.5925</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>3852.466666666667</v>
+        <v>3851.366666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3863</v>
+        <v>3846</v>
       </c>
       <c r="C75" t="n">
-        <v>3863</v>
+        <v>3845</v>
       </c>
       <c r="D75" t="n">
-        <v>3863</v>
+        <v>3846</v>
       </c>
       <c r="E75" t="n">
-        <v>3863</v>
+        <v>3845</v>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>22.5925</v>
       </c>
       <c r="G75" t="n">
-        <v>3853.866666666667</v>
+        <v>3852.466666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,10 +2562,10 @@
         <v>3863</v>
       </c>
       <c r="C76" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="D76" t="n">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="E76" t="n">
         <v>3863</v>
@@ -2347,9 +2574,12 @@
         <v>40</v>
       </c>
       <c r="G76" t="n">
-        <v>3855.3</v>
+        <v>3853.866666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3845</v>
+        <v>3863</v>
       </c>
       <c r="C77" t="n">
-        <v>3844</v>
+        <v>3865</v>
       </c>
       <c r="D77" t="n">
-        <v>3845</v>
+        <v>3865</v>
       </c>
       <c r="E77" t="n">
-        <v>3844</v>
+        <v>3863</v>
       </c>
       <c r="F77" t="n">
-        <v>64.09999999999999</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>3856.366666666667</v>
+        <v>3855.3</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="C78" t="n">
         <v>3844</v>
       </c>
       <c r="D78" t="n">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="E78" t="n">
         <v>3844</v>
       </c>
       <c r="F78" t="n">
-        <v>10.7505</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>3857.283333333333</v>
+        <v>3856.366666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3852</v>
+        <v>3844</v>
       </c>
       <c r="C79" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="D79" t="n">
-        <v>3853</v>
+        <v>3844</v>
       </c>
       <c r="E79" t="n">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="F79" t="n">
-        <v>95.9639</v>
+        <v>10.7505</v>
       </c>
       <c r="G79" t="n">
-        <v>3858.566666666667</v>
+        <v>3857.283333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3843</v>
+        <v>3852</v>
       </c>
       <c r="C80" t="n">
         <v>3843</v>
       </c>
       <c r="D80" t="n">
-        <v>3843</v>
+        <v>3853</v>
       </c>
       <c r="E80" t="n">
         <v>3843</v>
       </c>
       <c r="F80" t="n">
-        <v>8.011200000000001</v>
+        <v>95.9639</v>
       </c>
       <c r="G80" t="n">
-        <v>3859.383333333333</v>
+        <v>3858.566666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3813</v>
+        <v>3843</v>
       </c>
       <c r="C81" t="n">
-        <v>3857</v>
+        <v>3843</v>
       </c>
       <c r="D81" t="n">
-        <v>3857</v>
+        <v>3843</v>
       </c>
       <c r="E81" t="n">
-        <v>3813</v>
+        <v>3843</v>
       </c>
       <c r="F81" t="n">
-        <v>69.756</v>
+        <v>8.011200000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>3860.383333333333</v>
+        <v>3859.383333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3866</v>
+        <v>3813</v>
       </c>
       <c r="C82" t="n">
-        <v>3866</v>
+        <v>3857</v>
       </c>
       <c r="D82" t="n">
-        <v>3866</v>
+        <v>3857</v>
       </c>
       <c r="E82" t="n">
-        <v>3866</v>
+        <v>3813</v>
       </c>
       <c r="F82" t="n">
-        <v>42.1</v>
+        <v>69.756</v>
       </c>
       <c r="G82" t="n">
-        <v>3861.533333333333</v>
+        <v>3860.383333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>3866</v>
       </c>
       <c r="F83" t="n">
-        <v>21</v>
+        <v>42.1</v>
       </c>
       <c r="G83" t="n">
-        <v>3862.483333333333</v>
+        <v>3861.533333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3820</v>
+        <v>3866</v>
       </c>
       <c r="C84" t="n">
         <v>3866</v>
@@ -2549,15 +2800,18 @@
         <v>3866</v>
       </c>
       <c r="E84" t="n">
-        <v>3820</v>
+        <v>3866</v>
       </c>
       <c r="F84" t="n">
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="G84" t="n">
-        <v>3863.333333333333</v>
+        <v>3862.483333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>3820</v>
+      </c>
+      <c r="C85" t="n">
         <v>3866</v>
       </c>
-      <c r="C85" t="n">
-        <v>3868</v>
-      </c>
       <c r="D85" t="n">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="E85" t="n">
-        <v>3866</v>
+        <v>3820</v>
       </c>
       <c r="F85" t="n">
-        <v>175</v>
+        <v>26.6</v>
       </c>
       <c r="G85" t="n">
-        <v>3864.216666666667</v>
+        <v>3863.333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C86" t="n">
         <v>3868</v>
@@ -2601,15 +2858,18 @@
         <v>3868</v>
       </c>
       <c r="E86" t="n">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="F86" t="n">
-        <v>49.2091</v>
+        <v>175</v>
       </c>
       <c r="G86" t="n">
-        <v>3864.7</v>
+        <v>3864.216666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3889</v>
+        <v>3867</v>
       </c>
       <c r="C87" t="n">
-        <v>3892</v>
+        <v>3868</v>
       </c>
       <c r="D87" t="n">
-        <v>3892</v>
+        <v>3868</v>
       </c>
       <c r="E87" t="n">
-        <v>3889</v>
+        <v>3867</v>
       </c>
       <c r="F87" t="n">
-        <v>562.5029</v>
+        <v>49.2091</v>
       </c>
       <c r="G87" t="n">
-        <v>3865.583333333333</v>
+        <v>3864.7</v>
       </c>
       <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>3889</v>
+      </c>
+      <c r="C88" t="n">
         <v>3892</v>
       </c>
-      <c r="C88" t="n">
-        <v>3962</v>
-      </c>
       <c r="D88" t="n">
-        <v>3962</v>
+        <v>3892</v>
       </c>
       <c r="E88" t="n">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="F88" t="n">
-        <v>2136.7184</v>
+        <v>562.5029</v>
       </c>
       <c r="G88" t="n">
-        <v>3867.683333333333</v>
+        <v>3865.583333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>3892</v>
+      </c>
+      <c r="C89" t="n">
         <v>3962</v>
       </c>
-      <c r="C89" t="n">
-        <v>3963</v>
-      </c>
       <c r="D89" t="n">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E89" t="n">
-        <v>3962</v>
+        <v>3892</v>
       </c>
       <c r="F89" t="n">
-        <v>486</v>
+        <v>2136.7184</v>
       </c>
       <c r="G89" t="n">
-        <v>3869.733333333333</v>
+        <v>3867.683333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>3962</v>
       </c>
       <c r="C90" t="n">
-        <v>3896</v>
+        <v>3963</v>
       </c>
       <c r="D90" t="n">
+        <v>3963</v>
+      </c>
+      <c r="E90" t="n">
         <v>3962</v>
       </c>
-      <c r="E90" t="n">
-        <v>3896</v>
-      </c>
       <c r="F90" t="n">
-        <v>121.3</v>
+        <v>486</v>
       </c>
       <c r="G90" t="n">
-        <v>3871.333333333333</v>
+        <v>3869.733333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C91" t="n">
-        <v>3969</v>
+        <v>3896</v>
       </c>
       <c r="D91" t="n">
-        <v>3969</v>
+        <v>3962</v>
       </c>
       <c r="E91" t="n">
-        <v>3961</v>
+        <v>3896</v>
       </c>
       <c r="F91" t="n">
-        <v>1068.1496</v>
+        <v>121.3</v>
       </c>
       <c r="G91" t="n">
-        <v>3874.216666666667</v>
+        <v>3871.333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>3961</v>
+      </c>
+      <c r="C92" t="n">
         <v>3969</v>
       </c>
-      <c r="C92" t="n">
-        <v>4000</v>
-      </c>
       <c r="D92" t="n">
-        <v>4000</v>
+        <v>3969</v>
       </c>
       <c r="E92" t="n">
-        <v>3969</v>
+        <v>3961</v>
       </c>
       <c r="F92" t="n">
-        <v>3100.4944</v>
+        <v>1068.1496</v>
       </c>
       <c r="G92" t="n">
-        <v>3877.483333333333</v>
+        <v>3874.216666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>3969</v>
+      </c>
+      <c r="C93" t="n">
         <v>4000</v>
       </c>
-      <c r="C93" t="n">
-        <v>4003</v>
-      </c>
       <c r="D93" t="n">
-        <v>4041</v>
+        <v>4000</v>
       </c>
       <c r="E93" t="n">
-        <v>3999</v>
+        <v>3969</v>
       </c>
       <c r="F93" t="n">
-        <v>1544.0513</v>
+        <v>3100.4944</v>
       </c>
       <c r="G93" t="n">
-        <v>3879.7</v>
+        <v>3877.483333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C94" t="n">
         <v>4003</v>
       </c>
-      <c r="C94" t="n">
-        <v>4060</v>
-      </c>
       <c r="D94" t="n">
-        <v>4062</v>
+        <v>4041</v>
       </c>
       <c r="E94" t="n">
-        <v>4003</v>
+        <v>3999</v>
       </c>
       <c r="F94" t="n">
-        <v>571.6998</v>
+        <v>1544.0513</v>
       </c>
       <c r="G94" t="n">
-        <v>3882.916666666667</v>
+        <v>3879.7</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>4003</v>
+      </c>
+      <c r="C95" t="n">
         <v>4060</v>
       </c>
-      <c r="C95" t="n">
-        <v>4020</v>
-      </c>
       <c r="D95" t="n">
-        <v>4077</v>
+        <v>4062</v>
       </c>
       <c r="E95" t="n">
-        <v>4015</v>
+        <v>4003</v>
       </c>
       <c r="F95" t="n">
-        <v>2349.1368</v>
+        <v>571.6998</v>
       </c>
       <c r="G95" t="n">
-        <v>3885.55</v>
+        <v>3882.916666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4021</v>
+        <v>4060</v>
       </c>
       <c r="C96" t="n">
-        <v>4044</v>
+        <v>4020</v>
       </c>
       <c r="D96" t="n">
-        <v>4049</v>
+        <v>4077</v>
       </c>
       <c r="E96" t="n">
-        <v>4021</v>
+        <v>4015</v>
       </c>
       <c r="F96" t="n">
-        <v>146.6389</v>
+        <v>2349.1368</v>
       </c>
       <c r="G96" t="n">
-        <v>3888.45</v>
+        <v>3885.55</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,25 +3168,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>4021</v>
+      </c>
+      <c r="C97" t="n">
         <v>4044</v>
       </c>
-      <c r="C97" t="n">
-        <v>4059</v>
-      </c>
       <c r="D97" t="n">
-        <v>4059</v>
+        <v>4049</v>
       </c>
       <c r="E97" t="n">
-        <v>4044</v>
+        <v>4021</v>
       </c>
       <c r="F97" t="n">
-        <v>312.3795</v>
+        <v>146.6389</v>
       </c>
       <c r="G97" t="n">
-        <v>3891.55</v>
+        <v>3888.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +3197,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="C98" t="n">
-        <v>4019</v>
+        <v>4059</v>
       </c>
       <c r="D98" t="n">
-        <v>4045</v>
+        <v>4059</v>
       </c>
       <c r="E98" t="n">
-        <v>4019</v>
+        <v>4044</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>312.3795</v>
       </c>
       <c r="G98" t="n">
-        <v>3893.95</v>
+        <v>3891.55</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4024</v>
+        <v>4045</v>
       </c>
       <c r="C99" t="n">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="D99" t="n">
-        <v>4024</v>
+        <v>4045</v>
       </c>
       <c r="E99" t="n">
-        <v>4024</v>
+        <v>4019</v>
       </c>
       <c r="F99" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="G99" t="n">
-        <v>3896.433333333333</v>
+        <v>3893.95</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="C100" t="n">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="D100" t="n">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="E100" t="n">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F100" t="n">
-        <v>82.3107</v>
+        <v>8.4</v>
       </c>
       <c r="G100" t="n">
-        <v>3898.3</v>
+        <v>3896.433333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>4027</v>
       </c>
       <c r="C101" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="D101" t="n">
         <v>4027</v>
       </c>
       <c r="E101" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F101" t="n">
-        <v>40.3411</v>
+        <v>82.3107</v>
       </c>
       <c r="G101" t="n">
-        <v>3900.183333333333</v>
+        <v>3898.3</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>4027</v>
       </c>
       <c r="F102" t="n">
-        <v>964.3812</v>
+        <v>40.3411</v>
       </c>
       <c r="G102" t="n">
-        <v>3902.116666666667</v>
+        <v>3900.183333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="C103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="D103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="E103" t="n">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="F103" t="n">
-        <v>474.7361</v>
+        <v>964.3812</v>
       </c>
       <c r="G103" t="n">
-        <v>3904.833333333333</v>
+        <v>3902.116666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="C104" t="n">
-        <v>4050</v>
+        <v>4026</v>
       </c>
       <c r="D104" t="n">
-        <v>4050</v>
+        <v>4026</v>
       </c>
       <c r="E104" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F104" t="n">
-        <v>193.0085</v>
+        <v>474.7361</v>
       </c>
       <c r="G104" t="n">
-        <v>3908.083333333333</v>
+        <v>3904.833333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>4027</v>
       </c>
       <c r="C105" t="n">
-        <v>4026</v>
+        <v>4050</v>
       </c>
       <c r="D105" t="n">
+        <v>4050</v>
+      </c>
+      <c r="E105" t="n">
         <v>4027</v>
       </c>
-      <c r="E105" t="n">
-        <v>4026</v>
-      </c>
       <c r="F105" t="n">
-        <v>295.93</v>
+        <v>193.0085</v>
       </c>
       <c r="G105" t="n">
-        <v>3910.883333333333</v>
+        <v>3908.083333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>4027</v>
       </c>
       <c r="C106" t="n">
+        <v>4026</v>
+      </c>
+      <c r="D106" t="n">
         <v>4027</v>
       </c>
-      <c r="D106" t="n">
-        <v>4047</v>
-      </c>
       <c r="E106" t="n">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F106" t="n">
-        <v>59.0434</v>
+        <v>295.93</v>
       </c>
       <c r="G106" t="n">
-        <v>3913.7</v>
+        <v>3910.883333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4046</v>
+        <v>4027</v>
       </c>
       <c r="C107" t="n">
-        <v>4055</v>
+        <v>4027</v>
       </c>
       <c r="D107" t="n">
-        <v>4055</v>
+        <v>4047</v>
       </c>
       <c r="E107" t="n">
-        <v>4046</v>
+        <v>4027</v>
       </c>
       <c r="F107" t="n">
-        <v>39.8736</v>
+        <v>59.0434</v>
       </c>
       <c r="G107" t="n">
-        <v>3916.65</v>
+        <v>3913.7</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C108" t="n">
         <v>4055</v>
       </c>
-      <c r="C108" t="n">
-        <v>4060</v>
-      </c>
       <c r="D108" t="n">
-        <v>4060</v>
+        <v>4055</v>
       </c>
       <c r="E108" t="n">
-        <v>4055</v>
+        <v>4046</v>
       </c>
       <c r="F108" t="n">
-        <v>419.4817</v>
+        <v>39.8736</v>
       </c>
       <c r="G108" t="n">
-        <v>3919.916666666667</v>
+        <v>3916.65</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="C109" t="n">
-        <v>4080</v>
+        <v>4060</v>
       </c>
       <c r="D109" t="n">
-        <v>4080</v>
+        <v>4060</v>
       </c>
       <c r="E109" t="n">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="F109" t="n">
-        <v>98.2</v>
+        <v>419.4817</v>
       </c>
       <c r="G109" t="n">
-        <v>3923.266666666667</v>
+        <v>3919.916666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>4080</v>
       </c>
       <c r="C110" t="n">
-        <v>4042</v>
+        <v>4080</v>
       </c>
       <c r="D110" t="n">
         <v>4080</v>
       </c>
       <c r="E110" t="n">
-        <v>4036</v>
+        <v>4080</v>
       </c>
       <c r="F110" t="n">
-        <v>539.8313000000001</v>
+        <v>98.2</v>
       </c>
       <c r="G110" t="n">
-        <v>3926.05</v>
+        <v>3923.266666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4068</v>
+        <v>4080</v>
       </c>
       <c r="C111" t="n">
-        <v>4047</v>
+        <v>4042</v>
       </c>
       <c r="D111" t="n">
-        <v>4106</v>
+        <v>4080</v>
       </c>
       <c r="E111" t="n">
-        <v>4047</v>
+        <v>4036</v>
       </c>
       <c r="F111" t="n">
-        <v>768.6543</v>
+        <v>539.8313000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>3928.916666666667</v>
+        <v>3926.05</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4139</v>
+        <v>4068</v>
       </c>
       <c r="C112" t="n">
-        <v>4100</v>
+        <v>4047</v>
       </c>
       <c r="D112" t="n">
-        <v>4139</v>
+        <v>4106</v>
       </c>
       <c r="E112" t="n">
-        <v>4099</v>
+        <v>4047</v>
       </c>
       <c r="F112" t="n">
-        <v>402.5452</v>
+        <v>768.6543</v>
       </c>
       <c r="G112" t="n">
-        <v>3932.733333333333</v>
+        <v>3928.916666666667</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,544 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4100</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E113" t="n">
         <v>4099</v>
       </c>
-      <c r="C113" t="n">
-        <v>4092</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4099</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4092</v>
-      </c>
       <c r="F113" t="n">
-        <v>11.0347</v>
+        <v>402.5452</v>
       </c>
       <c r="G113" t="n">
-        <v>3936.45</v>
+        <v>3932.733333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4070</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4091</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4091</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4070</v>
-      </c>
-      <c r="F114" t="n">
-        <v>13.8828</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3940.1</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4091</v>
-      </c>
-      <c r="C115" t="n">
-        <v>4140</v>
-      </c>
-      <c r="D115" t="n">
-        <v>4140</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4091</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1576.8927</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3944.433333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4101</v>
-      </c>
-      <c r="C116" t="n">
-        <v>4141</v>
-      </c>
-      <c r="D116" t="n">
-        <v>4141</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4100</v>
-      </c>
-      <c r="F116" t="n">
-        <v>186.9135</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3948.366666666667</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4141</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4159</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4159</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4101</v>
-      </c>
-      <c r="F117" t="n">
-        <v>57.5134</v>
-      </c>
-      <c r="G117" t="n">
-        <v>3953.116666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C118" t="n">
-        <v>4168</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4168</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4157</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1047.7342</v>
-      </c>
-      <c r="G118" t="n">
-        <v>3957.433333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4173</v>
-      </c>
-      <c r="C119" t="n">
-        <v>4181</v>
-      </c>
-      <c r="D119" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4123</v>
-      </c>
-      <c r="F119" t="n">
-        <v>499.6397</v>
-      </c>
-      <c r="G119" t="n">
-        <v>3962.566666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4181</v>
-      </c>
-      <c r="C120" t="n">
-        <v>4176</v>
-      </c>
-      <c r="D120" t="n">
-        <v>4181</v>
-      </c>
-      <c r="E120" t="n">
-        <v>4139</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1483.0744</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3967.95</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4179</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E121" t="n">
-        <v>4179</v>
-      </c>
-      <c r="F121" t="n">
-        <v>13.3215</v>
-      </c>
-      <c r="G121" t="n">
-        <v>3973.5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4182</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4184</v>
-      </c>
-      <c r="D122" t="n">
-        <v>4185</v>
-      </c>
-      <c r="E122" t="n">
-        <v>4182</v>
-      </c>
-      <c r="F122" t="n">
-        <v>228.3784</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3978.166666666667</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4185</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4186</v>
-      </c>
-      <c r="D123" t="n">
-        <v>4186</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4185</v>
-      </c>
-      <c r="F123" t="n">
-        <v>132.1066</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3983.216666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4186</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4185</v>
-      </c>
-      <c r="D124" t="n">
-        <v>4186</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4132</v>
-      </c>
-      <c r="F124" t="n">
-        <v>433.3381</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3988.016666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4169</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4098</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4169</v>
-      </c>
-      <c r="E125" t="n">
-        <v>4098</v>
-      </c>
-      <c r="F125" t="n">
-        <v>215</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3991.416666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4169</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4061</v>
-      </c>
-      <c r="D126" t="n">
-        <v>4169</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4061</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1151.5974</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3994.666666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>4118</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4149</v>
-      </c>
-      <c r="D127" t="n">
-        <v>4149</v>
-      </c>
-      <c r="E127" t="n">
-        <v>4110</v>
-      </c>
-      <c r="F127" t="n">
-        <v>668.23140865</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3999.383333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>4149</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4150</v>
-      </c>
-      <c r="D128" t="n">
-        <v>4150</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4149</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G128" t="n">
-        <v>4004.15</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>4150</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4110</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4189</v>
-      </c>
-      <c r="E129" t="n">
-        <v>4110</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1629.8226</v>
-      </c>
-      <c r="G129" t="n">
-        <v>4008.6</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>4097</v>
-      </c>
-      <c r="C130" t="n">
-        <v>4101</v>
-      </c>
-      <c r="D130" t="n">
-        <v>4101</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4097</v>
-      </c>
-      <c r="F130" t="n">
-        <v>214.9826</v>
-      </c>
-      <c r="G130" t="n">
-        <v>4012.9</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>4056</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4055</v>
-      </c>
-      <c r="D131" t="n">
-        <v>4125</v>
-      </c>
-      <c r="E131" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F131" t="n">
-        <v>574.3192</v>
-      </c>
-      <c r="G131" t="n">
-        <v>4016.4</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="D132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4132</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" t="n">
-        <v>4020.85</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="C133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4138</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4025.4</v>
-      </c>
-      <c r="H133" t="n">
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
